--- a/data/councilor.xlsx
+++ b/data/councilor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0801DD-E252-0B40-ADCF-35A771305853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72544EFC-2D05-DD46-A8A1-06C4DE562832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="500" windowWidth="26340" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>title</t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>https://liff.line.me/1645278921-kWRPP32q/?accountId=tsunghao</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域立委</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>youtube</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@htniu16</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1573,13 +1585,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -1589,16 +1601,16 @@
     <col min="3" max="4" width="16.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="21.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28" style="1" customWidth="1"/>
-    <col min="10" max="11" width="16.33203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="43.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="33" style="1" customWidth="1"/>
-    <col min="15" max="15" width="100.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="16.33203125" style="1"/>
+    <col min="9" max="10" width="28" style="1" customWidth="1"/>
+    <col min="11" max="12" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="43.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="33" style="1" customWidth="1"/>
+    <col min="16" max="16" width="100.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.5" customHeight="1">
+    <row r="1" spans="1:16" ht="20.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1627,115 +1639,122 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="229.25" customHeight="1">
+    <row r="2" spans="1:16" ht="128.25" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="229.25" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" ht="128.25" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="9"/>
       <c r="K3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="144.25" customHeight="1">
+    <row r="4" spans="1:16" ht="144.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1763,24 +1782,25 @@
       <c r="I4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="178.25" customHeight="1">
+    <row r="5" spans="1:16" ht="178.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1808,39 +1828,41 @@
       <c r="I5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="N3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="N4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="N5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I2" r:id="rId5" xr:uid="{24E9397F-BA3B-7746-805A-127D4FF75A70}"/>
+    <hyperlink ref="O3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="O2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{24E9397F-BA3B-7746-805A-127D4FF75A70}"/>
     <hyperlink ref="I4" r:id="rId6" xr:uid="{5552C551-7136-CF4F-879A-41F25EA94613}"/>
-    <hyperlink ref="J4" r:id="rId7" xr:uid="{FCB3DE52-EA4D-8243-8ADA-501F81E590C5}"/>
-    <hyperlink ref="K4" r:id="rId8" xr:uid="{28D61E5B-4A2C-4A4F-AB0D-DF5D1EB145A2}"/>
-    <hyperlink ref="K2" r:id="rId9" xr:uid="{F4D3375C-6694-D847-8E2E-D309D21383CB}"/>
-    <hyperlink ref="K3" r:id="rId10" xr:uid="{C418CCFE-5343-DC4C-AB7A-2E6A1706D105}"/>
-    <hyperlink ref="K5" r:id="rId11" xr:uid="{DA8A064C-D1F3-ED45-B856-6F0DAC735BA3}"/>
-    <hyperlink ref="J5" r:id="rId12" xr:uid="{215DD8B9-A394-B04F-981C-BC898CABFBE3}"/>
-    <hyperlink ref="J2" r:id="rId13" xr:uid="{336E6D88-1E22-6343-92B2-BDB92117BFCC}"/>
+    <hyperlink ref="K4" r:id="rId7" xr:uid="{FCB3DE52-EA4D-8243-8ADA-501F81E590C5}"/>
+    <hyperlink ref="L4" r:id="rId8" xr:uid="{28D61E5B-4A2C-4A4F-AB0D-DF5D1EB145A2}"/>
+    <hyperlink ref="L3" r:id="rId9" xr:uid="{F4D3375C-6694-D847-8E2E-D309D21383CB}"/>
+    <hyperlink ref="L2" r:id="rId10" xr:uid="{C418CCFE-5343-DC4C-AB7A-2E6A1706D105}"/>
+    <hyperlink ref="L5" r:id="rId11" xr:uid="{DA8A064C-D1F3-ED45-B856-6F0DAC735BA3}"/>
+    <hyperlink ref="K5" r:id="rId12" xr:uid="{215DD8B9-A394-B04F-981C-BC898CABFBE3}"/>
+    <hyperlink ref="K3" r:id="rId13" xr:uid="{336E6D88-1E22-6343-92B2-BDB92117BFCC}"/>
+    <hyperlink ref="J2" r:id="rId14" xr:uid="{D2F26113-572F-2743-8811-7B633E8F81B8}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/councilor.xlsx
+++ b/data/councilor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72544EFC-2D05-DD46-A8A1-06C4DE562832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD905882-FFB1-574E-8DAA-B7F0A5BCCC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="500" windowWidth="26340" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2500" windowWidth="26340" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -100,12 +100,6 @@
     <t>現任桃園市議員 「桃園新選風」連線召集人 公民記者 「龜山故事」空拍影片製作人</t>
   </si>
   <si>
-    <t>龜山區大華里20鄰復興一路356-1號</t>
-  </si>
-  <si>
-    <t>niu-office@tycc.gov.tw</t>
-  </si>
-  <si>
     <t>fig/XLK-221-Election/AiCity-2210-選舉公報-14.png</t>
   </si>
   <si>
@@ -289,6 +283,14 @@
   </si>
   <si>
     <t>https://www.youtube.com/@htniu16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山區文化二路185巷10號1樓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>niuoffice.guishan@gmail.com</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1588,10 +1590,10 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -1618,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1639,13 +1641,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>9</v>
@@ -1654,7 +1656,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>11</v>
@@ -1665,13 +1667,13 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>21</v>
@@ -1680,32 +1682,32 @@
         <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="229.25" customHeight="1">
@@ -1716,7 +1718,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -1731,23 +1733,23 @@
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>19</v>
@@ -1756,93 +1758,93 @@
     </row>
     <row r="4" spans="1:16" ht="144.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" ht="178.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P5" s="7"/>
     </row>
@@ -1863,6 +1865,7 @@
     <hyperlink ref="K5" r:id="rId12" xr:uid="{215DD8B9-A394-B04F-981C-BC898CABFBE3}"/>
     <hyperlink ref="K3" r:id="rId13" xr:uid="{336E6D88-1E22-6343-92B2-BDB92117BFCC}"/>
     <hyperlink ref="J2" r:id="rId14" xr:uid="{D2F26113-572F-2743-8811-7B633E8F81B8}"/>
+    <hyperlink ref="I2" r:id="rId15" xr:uid="{7024A793-C558-A341-B2A5-7F29FB3DC9A6}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/councilor.xlsx
+++ b/data/councilor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD905882-FFB1-574E-8DAA-B7F0A5BCCC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F489B3-55DB-DF4F-B81C-C64445CBD836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2500" windowWidth="26340" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="500" windowWidth="26340" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>title</t>
   </si>
@@ -291,6 +291,14 @@
   </si>
   <si>
     <t>niuoffice.guishan@gmail.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tyleehao.com/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>website</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1587,13 +1595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -1603,16 +1611,16 @@
     <col min="3" max="4" width="16.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="21.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="28" style="1" customWidth="1"/>
-    <col min="11" max="12" width="16.33203125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="43.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="33" style="1" customWidth="1"/>
-    <col min="16" max="16" width="100.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="16.33203125" style="1"/>
+    <col min="9" max="11" width="28" style="1" customWidth="1"/>
+    <col min="12" max="13" width="16.33203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="43.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33" style="1" customWidth="1"/>
+    <col min="17" max="17" width="100.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.5" customHeight="1">
+    <row r="1" spans="1:17" ht="20.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1641,28 +1649,31 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="128.25" customHeight="1">
+    <row r="2" spans="1:17" ht="128.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1690,27 +1701,28 @@
       <c r="I2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="229.25" customHeight="1">
+    <row r="3" spans="1:17" ht="229.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1738,25 +1750,27 @@
       <c r="I3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:16" ht="144.25" customHeight="1">
+    <row r="4" spans="1:17" ht="144.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1785,24 +1799,25 @@
         <v>50</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:16" ht="178.25" customHeight="1">
+    <row r="5" spans="1:17" ht="178.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1831,41 +1846,43 @@
         <v>37</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="O2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="P3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="P4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="P5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="I3" r:id="rId5" xr:uid="{24E9397F-BA3B-7746-805A-127D4FF75A70}"/>
     <hyperlink ref="I4" r:id="rId6" xr:uid="{5552C551-7136-CF4F-879A-41F25EA94613}"/>
-    <hyperlink ref="K4" r:id="rId7" xr:uid="{FCB3DE52-EA4D-8243-8ADA-501F81E590C5}"/>
-    <hyperlink ref="L4" r:id="rId8" xr:uid="{28D61E5B-4A2C-4A4F-AB0D-DF5D1EB145A2}"/>
-    <hyperlink ref="L3" r:id="rId9" xr:uid="{F4D3375C-6694-D847-8E2E-D309D21383CB}"/>
-    <hyperlink ref="L2" r:id="rId10" xr:uid="{C418CCFE-5343-DC4C-AB7A-2E6A1706D105}"/>
-    <hyperlink ref="L5" r:id="rId11" xr:uid="{DA8A064C-D1F3-ED45-B856-6F0DAC735BA3}"/>
-    <hyperlink ref="K5" r:id="rId12" xr:uid="{215DD8B9-A394-B04F-981C-BC898CABFBE3}"/>
-    <hyperlink ref="K3" r:id="rId13" xr:uid="{336E6D88-1E22-6343-92B2-BDB92117BFCC}"/>
-    <hyperlink ref="J2" r:id="rId14" xr:uid="{D2F26113-572F-2743-8811-7B633E8F81B8}"/>
+    <hyperlink ref="L4" r:id="rId7" xr:uid="{FCB3DE52-EA4D-8243-8ADA-501F81E590C5}"/>
+    <hyperlink ref="M4" r:id="rId8" xr:uid="{28D61E5B-4A2C-4A4F-AB0D-DF5D1EB145A2}"/>
+    <hyperlink ref="M3" r:id="rId9" xr:uid="{F4D3375C-6694-D847-8E2E-D309D21383CB}"/>
+    <hyperlink ref="M2" r:id="rId10" xr:uid="{C418CCFE-5343-DC4C-AB7A-2E6A1706D105}"/>
+    <hyperlink ref="M5" r:id="rId11" xr:uid="{DA8A064C-D1F3-ED45-B856-6F0DAC735BA3}"/>
+    <hyperlink ref="L5" r:id="rId12" xr:uid="{215DD8B9-A394-B04F-981C-BC898CABFBE3}"/>
+    <hyperlink ref="L3" r:id="rId13" xr:uid="{336E6D88-1E22-6343-92B2-BDB92117BFCC}"/>
+    <hyperlink ref="K2" r:id="rId14" xr:uid="{D2F26113-572F-2743-8811-7B633E8F81B8}"/>
     <hyperlink ref="I2" r:id="rId15" xr:uid="{7024A793-C558-A341-B2A5-7F29FB3DC9A6}"/>
+    <hyperlink ref="J3" r:id="rId16" xr:uid="{271BDE14-30AA-E54B-A31A-0BE78F9A7854}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/councilor.xlsx
+++ b/data/councilor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F489B3-55DB-DF4F-B81C-C64445CBD836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F10B31A-D329-3442-8872-2FDBD40B59F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="500" windowWidth="26340" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>title</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>website</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.threads.net/@tyleehao</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>threads</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCMT2rh3lhgACifk2kbBQHOA</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +445,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -465,6 +477,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1595,13 +1610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -1611,16 +1626,16 @@
     <col min="3" max="4" width="16.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="21.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="28" style="1" customWidth="1"/>
-    <col min="12" max="13" width="16.33203125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="43.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="33" style="1" customWidth="1"/>
-    <col min="17" max="17" width="100.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="16.33203125" style="1"/>
+    <col min="9" max="12" width="28" style="1" customWidth="1"/>
+    <col min="13" max="14" width="16.33203125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="43.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="33" style="1" customWidth="1"/>
+    <col min="18" max="18" width="100.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.5" customHeight="1">
+    <row r="1" spans="1:18" ht="20.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1649,31 +1664,34 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="128.25" customHeight="1">
+    <row r="2" spans="1:18" ht="128.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1702,27 +1720,28 @@
         <v>68</v>
       </c>
       <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="229.25" customHeight="1">
+    <row r="3" spans="1:18" ht="229.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1751,26 +1770,32 @@
         <v>49</v>
       </c>
       <c r="J3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:17" ht="144.25" customHeight="1">
+    <row r="4" spans="1:18" ht="144.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1800,24 +1825,25 @@
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="178.25" customHeight="1">
+    <row r="5" spans="1:18" ht="178.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1847,42 +1873,45 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="Q5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="P4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="P5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="Q4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="Q5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="I3" r:id="rId5" xr:uid="{24E9397F-BA3B-7746-805A-127D4FF75A70}"/>
     <hyperlink ref="I4" r:id="rId6" xr:uid="{5552C551-7136-CF4F-879A-41F25EA94613}"/>
-    <hyperlink ref="L4" r:id="rId7" xr:uid="{FCB3DE52-EA4D-8243-8ADA-501F81E590C5}"/>
-    <hyperlink ref="M4" r:id="rId8" xr:uid="{28D61E5B-4A2C-4A4F-AB0D-DF5D1EB145A2}"/>
-    <hyperlink ref="M3" r:id="rId9" xr:uid="{F4D3375C-6694-D847-8E2E-D309D21383CB}"/>
-    <hyperlink ref="M2" r:id="rId10" xr:uid="{C418CCFE-5343-DC4C-AB7A-2E6A1706D105}"/>
-    <hyperlink ref="M5" r:id="rId11" xr:uid="{DA8A064C-D1F3-ED45-B856-6F0DAC735BA3}"/>
-    <hyperlink ref="L5" r:id="rId12" xr:uid="{215DD8B9-A394-B04F-981C-BC898CABFBE3}"/>
-    <hyperlink ref="L3" r:id="rId13" xr:uid="{336E6D88-1E22-6343-92B2-BDB92117BFCC}"/>
-    <hyperlink ref="K2" r:id="rId14" xr:uid="{D2F26113-572F-2743-8811-7B633E8F81B8}"/>
+    <hyperlink ref="M4" r:id="rId7" xr:uid="{FCB3DE52-EA4D-8243-8ADA-501F81E590C5}"/>
+    <hyperlink ref="N4" r:id="rId8" xr:uid="{28D61E5B-4A2C-4A4F-AB0D-DF5D1EB145A2}"/>
+    <hyperlink ref="N3" r:id="rId9" xr:uid="{F4D3375C-6694-D847-8E2E-D309D21383CB}"/>
+    <hyperlink ref="N2" r:id="rId10" xr:uid="{C418CCFE-5343-DC4C-AB7A-2E6A1706D105}"/>
+    <hyperlink ref="N5" r:id="rId11" xr:uid="{DA8A064C-D1F3-ED45-B856-6F0DAC735BA3}"/>
+    <hyperlink ref="M5" r:id="rId12" xr:uid="{215DD8B9-A394-B04F-981C-BC898CABFBE3}"/>
+    <hyperlink ref="M3" r:id="rId13" xr:uid="{336E6D88-1E22-6343-92B2-BDB92117BFCC}"/>
+    <hyperlink ref="L2" r:id="rId14" xr:uid="{D2F26113-572F-2743-8811-7B633E8F81B8}"/>
     <hyperlink ref="I2" r:id="rId15" xr:uid="{7024A793-C558-A341-B2A5-7F29FB3DC9A6}"/>
-    <hyperlink ref="J3" r:id="rId16" xr:uid="{271BDE14-30AA-E54B-A31A-0BE78F9A7854}"/>
+    <hyperlink ref="K3" r:id="rId16" xr:uid="{271BDE14-30AA-E54B-A31A-0BE78F9A7854}"/>
+    <hyperlink ref="J3" r:id="rId17" xr:uid="{31E776C7-6B59-F34A-819B-556262D20F9F}"/>
+    <hyperlink ref="L3" r:id="rId18" xr:uid="{D5DF83E6-2B79-1441-BCCE-AE44D7980878}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
